--- a/REGULAR/DSWD/ABENA, WINNIE ROSE.xlsx
+++ b/REGULAR/DSWD/ABENA, WINNIE ROSE.xlsx
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="87">
   <si>
     <t>PERIOD</t>
   </si>
@@ -285,16 +285,16 @@
     <t>FL(3-0-0)</t>
   </si>
   <si>
-    <t>FL(1-0-0)</t>
-  </si>
-  <si>
     <t>PARENTAL 5/17/23</t>
   </si>
   <si>
-    <t>A(1-0-0)</t>
-  </si>
-  <si>
     <t>UT(0-0-5)</t>
+  </si>
+  <si>
+    <t>8/29 - 9/1/2023</t>
+  </si>
+  <si>
+    <t>VL(1-0-0)</t>
   </si>
 </sst>
 </file>
@@ -1163,7 +1163,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1206,7 +1206,7 @@
         <xdr:cNvPr id="5" name="TextBox 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1270,7 +1270,7 @@
         <xdr:cNvPr id="4" name="Arrow: Left 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1330,7 +1330,7 @@
         <xdr:cNvPr id="8" name="Oval 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1396,7 +1396,7 @@
         <xdr:cNvPr id="9" name="Arrow: Left-Right 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1459,7 +1459,7 @@
         <xdr:cNvPr id="10" name="TextBox 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1557,7 +1557,7 @@
         <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1616,7 +1616,7 @@
         <xdr:cNvPr id="19" name="TextBox 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1681,7 +1681,7 @@
         <xdr:cNvPr id="20" name="Picture 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1724,7 +1724,7 @@
         <xdr:cNvPr id="21" name="TextBox 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1799,7 +1799,7 @@
         <xdr:cNvPr id="22" name="TextBox 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1985,7 +1985,7 @@
         <xdr:cNvPr id="23" name="Oval 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2051,7 +2051,7 @@
         <xdr:cNvPr id="24" name="Straight Arrow Connector 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2109,7 +2109,7 @@
         <xdr:cNvPr id="26" name="Oval 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2175,7 +2175,7 @@
         <xdr:cNvPr id="27" name="Straight Arrow Connector 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2231,7 +2231,7 @@
         <xdr:cNvPr id="30" name="TextBox 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2306,7 +2306,7 @@
         <xdr:cNvPr id="31" name="Picture 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2349,7 +2349,7 @@
         <xdr:cNvPr id="32" name="Oval 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2415,7 +2415,7 @@
         <xdr:cNvPr id="33" name="Straight Arrow Connector 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2471,7 +2471,7 @@
         <xdr:cNvPr id="34" name="TextBox 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2569,7 +2569,7 @@
         <xdr:cNvPr id="2" name="Rectangle 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2632,7 +2632,7 @@
         <xdr:cNvPr id="3" name="Rectangle 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2698,7 +2698,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K137" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K138" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
   <tableColumns count="11">
     <tableColumn id="1" name="PERIOD" dataDxfId="20"/>
     <tableColumn id="2" name="PARTICULARS" dataDxfId="19"/>
@@ -3076,12 +3076,12 @@
   <sheetPr codeName="Sheet2">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:K137"/>
+  <dimension ref="A2:M138"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3690" topLeftCell="A82" activePane="bottomLeft"/>
-      <selection activeCell="A8" sqref="A8:K143"/>
-      <selection pane="bottomLeft" activeCell="B91" sqref="B91"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="3690" topLeftCell="A94"/>
+      <selection activeCell="E10" sqref="E10"/>
+      <selection pane="bottomLeft" activeCell="F100" sqref="F100"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3099,7 +3099,7 @@
     <col min="11" max="11" width="24.85546875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="29" t="s">
         <v>9</v>
       </c>
@@ -3120,7 +3120,7 @@
       <c r="J2" s="53"/>
       <c r="K2" s="54"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
@@ -3140,7 +3140,7 @@
       <c r="J3" s="55"/>
       <c r="K3" s="56"/>
     </row>
-    <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
@@ -3162,7 +3162,7 @@
       <c r="J4" s="57"/>
       <c r="K4" s="58"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="16"/>
       <c r="H5" s="27" t="s">
         <v>18</v>
@@ -3170,7 +3170,7 @@
       <c r="I5" s="27"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" s="17"/>
       <c r="B6" s="8"/>
       <c r="C6" s="31"/>
@@ -3183,7 +3183,7 @@
       <c r="J6" s="8"/>
       <c r="K6" s="19"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
       <c r="C7" s="51" t="s">
@@ -3200,7 +3200,7 @@
       <c r="J7" s="51"/>
       <c r="K7" s="14"/>
     </row>
-    <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>0</v>
       </c>
@@ -3235,7 +3235,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" s="23"/>
       <c r="B9" s="24" t="s">
         <v>23</v>
@@ -3244,7 +3244,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>72.739999999999995</v>
+        <v>72.239999999999995</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -3254,12 +3254,13 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>92.75</v>
+        <v>94.25</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M9" s="44"/>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" s="48" t="s">
         <v>42</v>
       </c>
@@ -3281,7 +3282,7 @@
       <c r="J10" s="11"/>
       <c r="K10" s="20"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" s="40">
         <v>42583</v>
       </c>
@@ -3301,7 +3302,7 @@
       <c r="J11" s="11"/>
       <c r="K11" s="20"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" s="40">
         <v>42614</v>
       </c>
@@ -3321,7 +3322,7 @@
       <c r="J12" s="11"/>
       <c r="K12" s="20"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" s="40">
         <v>42644</v>
       </c>
@@ -3341,7 +3342,7 @@
       <c r="J13" s="11"/>
       <c r="K13" s="20"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" s="40">
         <v>42675</v>
       </c>
@@ -3361,7 +3362,7 @@
       <c r="J14" s="11"/>
       <c r="K14" s="20"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" s="40">
         <v>42705</v>
       </c>
@@ -3381,7 +3382,7 @@
       <c r="J15" s="11"/>
       <c r="K15" s="20"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" s="48" t="s">
         <v>48</v>
       </c>
@@ -5054,7 +5055,7 @@
         <v>44713</v>
       </c>
       <c r="B94" s="20" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C94" s="13">
         <v>1.25</v>
@@ -5078,7 +5079,7 @@
         <v>44743</v>
       </c>
       <c r="B95" s="20" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C95" s="13">
         <v>1.25</v>
@@ -5213,13 +5214,9 @@
     </row>
     <row r="101" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A101" s="40"/>
-      <c r="B101" s="20" t="s">
-        <v>83</v>
-      </c>
+      <c r="B101" s="20"/>
       <c r="C101" s="13"/>
-      <c r="D101" s="39">
-        <v>1</v>
-      </c>
+      <c r="D101" s="39"/>
       <c r="E101" s="9"/>
       <c r="F101" s="20"/>
       <c r="G101" s="13" t="str">
@@ -5354,7 +5351,7 @@
       <c r="I107" s="9"/>
       <c r="J107" s="11"/>
       <c r="K107" s="20" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="108" spans="1:11" x14ac:dyDescent="0.25">
@@ -5382,13 +5379,15 @@
         <v>45108</v>
       </c>
       <c r="B109" s="20"/>
-      <c r="C109" s="13"/>
+      <c r="C109" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D109" s="39"/>
       <c r="E109" s="9"/>
       <c r="F109" s="20"/>
-      <c r="G109" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G109" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H109" s="39"/>
       <c r="I109" s="9"/>
@@ -5399,27 +5398,37 @@
       <c r="A110" s="40">
         <v>45139</v>
       </c>
-      <c r="B110" s="20"/>
-      <c r="C110" s="13"/>
+      <c r="B110" s="20" t="s">
+        <v>54</v>
+      </c>
+      <c r="C110" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D110" s="39"/>
       <c r="E110" s="9"/>
       <c r="F110" s="20"/>
-      <c r="G110" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H110" s="39"/>
+      <c r="G110" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H110" s="39">
+        <v>1</v>
+      </c>
       <c r="I110" s="9"/>
       <c r="J110" s="11"/>
-      <c r="K110" s="20"/>
+      <c r="K110" s="50">
+        <v>45161</v>
+      </c>
     </row>
     <row r="111" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A111" s="40">
-        <v>45170</v>
-      </c>
-      <c r="B111" s="20"/>
+      <c r="A111" s="40"/>
+      <c r="B111" s="20" t="s">
+        <v>79</v>
+      </c>
       <c r="C111" s="13"/>
-      <c r="D111" s="39"/>
+      <c r="D111" s="39">
+        <v>4</v>
+      </c>
       <c r="E111" s="9"/>
       <c r="F111" s="20"/>
       <c r="G111" s="13" t="str">
@@ -5429,12 +5438,12 @@
       <c r="H111" s="39"/>
       <c r="I111" s="9"/>
       <c r="J111" s="11"/>
-      <c r="K111" s="20"/>
+      <c r="K111" s="50" t="s">
+        <v>85</v>
+      </c>
     </row>
     <row r="112" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A112" s="40">
-        <v>45200</v>
-      </c>
+      <c r="A112" s="40"/>
       <c r="B112" s="20"/>
       <c r="C112" s="13"/>
       <c r="D112" s="39"/>
@@ -5450,9 +5459,7 @@
       <c r="K112" s="20"/>
     </row>
     <row r="113" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A113" s="40">
-        <v>45231</v>
-      </c>
+      <c r="A113" s="40"/>
       <c r="B113" s="20"/>
       <c r="C113" s="13"/>
       <c r="D113" s="39"/>
@@ -5468,9 +5475,7 @@
       <c r="K113" s="20"/>
     </row>
     <row r="114" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A114" s="40">
-        <v>45261</v>
-      </c>
+      <c r="A114" s="40"/>
       <c r="B114" s="20"/>
       <c r="C114" s="13"/>
       <c r="D114" s="39"/>
@@ -5486,9 +5491,7 @@
       <c r="K114" s="20"/>
     </row>
     <row r="115" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A115" s="40">
-        <v>45292</v>
-      </c>
+      <c r="A115" s="40"/>
       <c r="B115" s="20"/>
       <c r="C115" s="13"/>
       <c r="D115" s="39"/>
@@ -5504,9 +5507,7 @@
       <c r="K115" s="20"/>
     </row>
     <row r="116" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A116" s="40">
-        <v>45323</v>
-      </c>
+      <c r="A116" s="40"/>
       <c r="B116" s="20"/>
       <c r="C116" s="13"/>
       <c r="D116" s="39"/>
@@ -5522,9 +5523,7 @@
       <c r="K116" s="20"/>
     </row>
     <row r="117" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A117" s="40">
-        <v>45352</v>
-      </c>
+      <c r="A117" s="40"/>
       <c r="B117" s="20"/>
       <c r="C117" s="13"/>
       <c r="D117" s="39"/>
@@ -5540,9 +5539,7 @@
       <c r="K117" s="20"/>
     </row>
     <row r="118" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A118" s="40">
-        <v>45383</v>
-      </c>
+      <c r="A118" s="40"/>
       <c r="B118" s="20"/>
       <c r="C118" s="13"/>
       <c r="D118" s="39"/>
@@ -5558,9 +5555,7 @@
       <c r="K118" s="20"/>
     </row>
     <row r="119" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A119" s="40">
-        <v>45413</v>
-      </c>
+      <c r="A119" s="40"/>
       <c r="B119" s="20"/>
       <c r="C119" s="13"/>
       <c r="D119" s="39"/>
@@ -5576,9 +5571,7 @@
       <c r="K119" s="20"/>
     </row>
     <row r="120" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A120" s="40">
-        <v>45444</v>
-      </c>
+      <c r="A120" s="40"/>
       <c r="B120" s="20"/>
       <c r="C120" s="13"/>
       <c r="D120" s="39"/>
@@ -5594,9 +5587,7 @@
       <c r="K120" s="20"/>
     </row>
     <row r="121" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A121" s="40">
-        <v>45474</v>
-      </c>
+      <c r="A121" s="40"/>
       <c r="B121" s="20"/>
       <c r="C121" s="13"/>
       <c r="D121" s="39"/>
@@ -5852,20 +5843,36 @@
       <c r="K136" s="20"/>
     </row>
     <row r="137" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A137" s="41"/>
-      <c r="B137" s="15"/>
-      <c r="C137" s="42"/>
-      <c r="D137" s="43"/>
+      <c r="A137" s="40"/>
+      <c r="B137" s="20"/>
+      <c r="C137" s="13"/>
+      <c r="D137" s="39"/>
       <c r="E137" s="9"/>
-      <c r="F137" s="15"/>
-      <c r="G137" s="42" t="str">
+      <c r="F137" s="20"/>
+      <c r="G137" s="13" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H137" s="43"/>
+      <c r="H137" s="39"/>
       <c r="I137" s="9"/>
-      <c r="J137" s="12"/>
-      <c r="K137" s="15"/>
+      <c r="J137" s="11"/>
+      <c r="K137" s="20"/>
+    </row>
+    <row r="138" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A138" s="41"/>
+      <c r="B138" s="15"/>
+      <c r="C138" s="42"/>
+      <c r="D138" s="43"/>
+      <c r="E138" s="9"/>
+      <c r="F138" s="15"/>
+      <c r="G138" s="42" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H138" s="43"/>
+      <c r="I138" s="9"/>
+      <c r="J138" s="12"/>
+      <c r="K138" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="11">
